--- a/wide/synthetic_dataset_12.xlsx
+++ b/wide/synthetic_dataset_12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>soon</t>
   </si>
@@ -380,200 +380,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:20">
       <c r="A1" s="1">
-        <v>45852</v>
+        <v>45940</v>
       </c>
       <c r="B1" s="1">
-        <v>45859</v>
+        <v>45947</v>
       </c>
       <c r="C1" s="1">
-        <v>45866</v>
+        <v>45954</v>
       </c>
       <c r="D1" s="1">
-        <v>45873</v>
+        <v>45961</v>
       </c>
       <c r="E1" s="1">
-        <v>45880</v>
+        <v>45968</v>
       </c>
       <c r="F1" s="1">
-        <v>45887</v>
-      </c>
-      <c r="G1" s="1">
-        <v>45894</v>
-      </c>
+        <v>45975</v>
+      </c>
+      <c r="G1" s="2"/>
       <c r="H1" s="1">
-        <v>45901</v>
+        <v>45989</v>
       </c>
       <c r="I1" s="1">
-        <v>45908</v>
+        <v>45996</v>
       </c>
       <c r="J1" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K1" s="2" t="s">
+        <v>46003</v>
+      </c>
+      <c r="K1" s="1">
+        <v>46010</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1">
-        <v>45929</v>
+      <c r="M1" s="1">
+        <v>46024</v>
+      </c>
+      <c r="N1" s="1">
+        <v>46031</v>
+      </c>
+      <c r="O1" s="1">
+        <v>46038</v>
+      </c>
+      <c r="P1" s="1">
+        <v>46045</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>46052</v>
+      </c>
+      <c r="R1" s="1">
+        <v>46059</v>
+      </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:20">
       <c r="A2">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="B2">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="C2">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D2">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E2">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="F2">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="G2">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="H2">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="I2">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J2">
-        <v>72</v>
+        <v>194</v>
       </c>
       <c r="K2">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="L2">
-        <v>165</v>
+        <v>124</v>
+      </c>
+      <c r="M2">
+        <v>178</v>
+      </c>
+      <c r="N2">
+        <v>92</v>
+      </c>
+      <c r="O2">
+        <v>50</v>
+      </c>
+      <c r="P2">
+        <v>190</v>
+      </c>
+      <c r="Q2">
+        <v>154</v>
+      </c>
+      <c r="R2">
+        <v>122</v>
+      </c>
+      <c r="S2">
+        <v>120</v>
+      </c>
+      <c r="T2">
+        <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:20">
       <c r="A3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
         <v>9</v>
       </c>
-      <c r="H3">
+      <c r="O3">
+        <v>9</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <v>9</v>
+      </c>
+      <c r="S3">
         <v>4</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>9</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
-      </c>
-      <c r="L3">
-        <v>7</v>
+      <c r="T3">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:20">
       <c r="A4">
+        <v>142</v>
+      </c>
+      <c r="B4">
+        <v>174</v>
+      </c>
+      <c r="C4">
+        <v>125</v>
+      </c>
+      <c r="D4">
+        <v>188</v>
+      </c>
+      <c r="E4">
+        <v>173</v>
+      </c>
+      <c r="F4">
+        <v>159</v>
+      </c>
+      <c r="G4">
+        <v>137</v>
+      </c>
+      <c r="H4">
+        <v>166</v>
+      </c>
+      <c r="J4">
+        <v>159</v>
+      </c>
+      <c r="K4">
+        <v>58</v>
+      </c>
+      <c r="L4">
+        <v>88</v>
+      </c>
+      <c r="M4">
+        <v>169</v>
+      </c>
+      <c r="N4">
+        <v>56</v>
+      </c>
+      <c r="O4">
+        <v>132</v>
+      </c>
+      <c r="P4">
+        <v>148</v>
+      </c>
+      <c r="Q4">
+        <v>117</v>
+      </c>
+      <c r="R4">
+        <v>85</v>
+      </c>
+      <c r="S4">
+        <v>66</v>
+      </c>
+      <c r="T4">
         <v>177</v>
       </c>
-      <c r="B4">
-        <v>151</v>
-      </c>
-      <c r="C4">
-        <v>109</v>
-      </c>
-      <c r="D4">
-        <v>51</v>
-      </c>
-      <c r="E4">
-        <v>189</v>
-      </c>
-      <c r="F4">
-        <v>106</v>
-      </c>
-      <c r="G4">
-        <v>56</v>
-      </c>
-      <c r="H4">
-        <v>64</v>
-      </c>
-      <c r="I4">
-        <v>91</v>
-      </c>
-      <c r="J4">
-        <v>82</v>
-      </c>
-      <c r="K4">
-        <v>123</v>
-      </c>
-      <c r="L4">
-        <v>150</v>
-      </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:20">
       <c r="A5">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
       <c r="G5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>5</v>
       </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
       <c r="J5">
         <v>6</v>
       </c>
       <c r="K5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
         <v>3</v>
+      </c>
+      <c r="T5">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
